--- a/Code/Results/Cases/Case_4_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.543841718428666</v>
+        <v>0.8829803438055706</v>
       </c>
       <c r="C2">
-        <v>0.6287315745144895</v>
+        <v>0.1755377646059628</v>
       </c>
       <c r="D2">
-        <v>0.2066275050200232</v>
+        <v>0.07869776133452433</v>
       </c>
       <c r="E2">
-        <v>0.199917169151</v>
+        <v>0.09941137218497431</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.828328089008721</v>
+        <v>1.498862315415892</v>
       </c>
       <c r="H2">
-        <v>1.505202678136754</v>
+        <v>1.208302126339021</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9847977535710655</v>
+        <v>0.3588998942875961</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.189000186341161</v>
+        <v>0.7915654878975147</v>
       </c>
       <c r="C3">
-        <v>0.544267915881619</v>
+        <v>0.1526226228488952</v>
       </c>
       <c r="D3">
-        <v>0.177882804315729</v>
+        <v>0.07133251497639037</v>
       </c>
       <c r="E3">
-        <v>0.1737341564771171</v>
+        <v>0.09315340541534312</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.486762503983044</v>
+        <v>1.414789356164249</v>
       </c>
       <c r="H3">
-        <v>1.351566492478639</v>
+        <v>1.174302172605053</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.846013159800016</v>
+        <v>0.3237949660798591</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.974650245518148</v>
+        <v>0.7358813128300028</v>
       </c>
       <c r="C4">
-        <v>0.4931570583339919</v>
+        <v>0.1385599860710158</v>
       </c>
       <c r="D4">
-        <v>0.16059989925445</v>
+        <v>0.06685335012912219</v>
       </c>
       <c r="E4">
-        <v>0.1581415893476787</v>
+        <v>0.08937498524816334</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.283523920331902</v>
+        <v>1.36403068976486</v>
       </c>
       <c r="H4">
-        <v>1.260564396161953</v>
+        <v>1.154066190260011</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7625122525895591</v>
+        <v>0.3024417656031773</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.888043796036499</v>
+        <v>0.7133000115429127</v>
       </c>
       <c r="C5">
-        <v>0.4724815550573283</v>
+        <v>0.1328307656777952</v>
       </c>
       <c r="D5">
-        <v>0.1536358261019046</v>
+        <v>0.06503869437567289</v>
       </c>
       <c r="E5">
-        <v>0.1518927788096249</v>
+        <v>0.08785101908407</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.202125725714296</v>
+        <v>1.343558948799028</v>
       </c>
       <c r="H5">
-        <v>1.224220017278867</v>
+        <v>1.145979045323827</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7288501568770442</v>
+        <v>0.2937898753701162</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.87370380879554</v>
+        <v>0.7095570339513699</v>
       </c>
       <c r="C6">
-        <v>0.4690566358000581</v>
+        <v>0.1318795063042728</v>
       </c>
       <c r="D6">
-        <v>0.1524838447087404</v>
+        <v>0.06473800890587711</v>
       </c>
       <c r="E6">
-        <v>0.1508610792480454</v>
+        <v>0.08759890882613774</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.188689888079239</v>
+        <v>1.34017236820489</v>
       </c>
       <c r="H6">
-        <v>1.218227051771635</v>
+        <v>1.14464574337967</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7232808534187072</v>
+        <v>0.2923562114433693</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.973479411794273</v>
+        <v>0.7355763281404393</v>
       </c>
       <c r="C7">
-        <v>0.4928776483903334</v>
+        <v>0.1384827146149235</v>
       </c>
       <c r="D7">
-        <v>0.1605056767155304</v>
+        <v>0.06682883422968189</v>
       </c>
       <c r="E7">
-        <v>0.1580569098787308</v>
+        <v>0.08935436907341199</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.282420652972917</v>
+        <v>1.363753744311339</v>
       </c>
       <c r="H7">
-        <v>1.260071370694675</v>
+        <v>1.153956482048699</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7620568771068079</v>
+        <v>0.3023248831059178</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.420669937172704</v>
+        <v>0.851367259767585</v>
       </c>
       <c r="C8">
-        <v>0.5994298675514926</v>
+        <v>0.1676348284937887</v>
       </c>
       <c r="D8">
-        <v>0.1966318480064899</v>
+        <v>0.07614914768433323</v>
       </c>
       <c r="E8">
-        <v>0.1907784197818003</v>
+        <v>0.09724014635884259</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.709079168204312</v>
+        <v>1.469692485230212</v>
       </c>
       <c r="H8">
-        <v>1.451475494658212</v>
+        <v>1.19644499576799</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9365475213044263</v>
+        <v>0.3467533501333051</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.332921000384488</v>
+        <v>1.082041344766537</v>
       </c>
       <c r="C9">
-        <v>0.8161899115683866</v>
+        <v>0.2248830162622824</v>
       </c>
       <c r="D9">
-        <v>0.2710614005638234</v>
+        <v>0.09477868155960323</v>
       </c>
       <c r="E9">
-        <v>0.2596257956853876</v>
+        <v>0.113227310595498</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.607777001631462</v>
+        <v>1.68447511285234</v>
       </c>
       <c r="H9">
-        <v>1.858244797897299</v>
+        <v>1.284929683595749</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.295686890171595</v>
+        <v>0.4355219891104696</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.036530862887275</v>
+        <v>1.25384579344518</v>
       </c>
       <c r="C10">
-        <v>0.9832246630475083</v>
+        <v>0.2670286224909262</v>
       </c>
       <c r="D10">
-        <v>0.3290199147421333</v>
+        <v>0.1086963214556107</v>
       </c>
       <c r="E10">
-        <v>0.3144209218617107</v>
+        <v>0.12531461444744</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.322840503118499</v>
+        <v>1.846850386239112</v>
       </c>
       <c r="H10">
-        <v>2.184278799875926</v>
+        <v>1.35321438721985</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.575330041704319</v>
+        <v>0.5018151136100073</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.367061691365734</v>
+        <v>1.3325392911687</v>
       </c>
       <c r="C11">
-        <v>1.06172389522564</v>
+        <v>0.2862285267657967</v>
       </c>
       <c r="D11">
-        <v>0.3563896200603551</v>
+        <v>0.1150813877566179</v>
       </c>
       <c r="E11">
-        <v>0.3406321287225182</v>
+        <v>0.1308926057209661</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.664601970394926</v>
+        <v>1.921775173409515</v>
       </c>
       <c r="H11">
-        <v>2.340658355995799</v>
+        <v>1.385017961515189</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.707445477592728</v>
+        <v>0.5322232771562909</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.494048548623596</v>
+        <v>1.362418047789959</v>
       </c>
       <c r="C12">
-        <v>1.091894098105001</v>
+        <v>0.2935036089716334</v>
       </c>
       <c r="D12">
-        <v>0.3669273350211313</v>
+        <v>0.1175072522520395</v>
       </c>
       <c r="E12">
-        <v>0.3507796293772785</v>
+        <v>0.1330166537376343</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.796845048384455</v>
+        <v>1.950304408370357</v>
       </c>
       <c r="H12">
-        <v>2.401251294564418</v>
+        <v>1.397169780535251</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.758327509734329</v>
+        <v>0.5437753764940823</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.466612963121406</v>
+        <v>1.355979570248735</v>
       </c>
       <c r="C13">
-        <v>1.085375171561111</v>
+        <v>0.2919365815139088</v>
       </c>
       <c r="D13">
-        <v>0.3646496231049667</v>
+        <v>0.1169844403290341</v>
       </c>
       <c r="E13">
-        <v>0.348583652555817</v>
+        <v>0.132558672059254</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.768230369796413</v>
+        <v>1.944153079391072</v>
       </c>
       <c r="H13">
-        <v>2.388136519761588</v>
+        <v>1.394547811245957</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.74732859961442</v>
+        <v>0.5412857537998548</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.377470442105277</v>
+        <v>1.334995836151961</v>
       </c>
       <c r="C14">
-        <v>1.064196586464675</v>
+        <v>0.286826959043168</v>
       </c>
       <c r="D14">
-        <v>0.3572529054820137</v>
+        <v>0.1152808038384023</v>
       </c>
       <c r="E14">
-        <v>0.3414622865265144</v>
+        <v>0.1310671141626329</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.675422171556761</v>
+        <v>1.924119121428646</v>
       </c>
       <c r="H14">
-        <v>2.345614442298142</v>
+        <v>1.386015512968811</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.711613545296601</v>
+        <v>0.5331729237431801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.323115729008293</v>
+        <v>1.322153065296391</v>
       </c>
       <c r="C15">
-        <v>1.051284649067242</v>
+        <v>0.2836977687889544</v>
       </c>
       <c r="D15">
-        <v>0.3527457277050843</v>
+        <v>0.1142383233173234</v>
       </c>
       <c r="E15">
-        <v>0.337130354280788</v>
+        <v>0.13015503736532</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.618957282315307</v>
+        <v>1.91186830368008</v>
       </c>
       <c r="H15">
-        <v>2.319754581534653</v>
+        <v>1.380803423299369</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.689852914431043</v>
+        <v>0.5282084565285743</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.015166319498064</v>
+        <v>1.248713979267052</v>
       </c>
       <c r="C16">
-        <v>0.9781518943069614</v>
+        <v>0.2657744640592341</v>
       </c>
       <c r="D16">
-        <v>0.3272538187463994</v>
+        <v>0.1082801460398031</v>
       </c>
       <c r="E16">
-        <v>0.3127368402823336</v>
+        <v>0.1249517086413903</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.300874416092825</v>
+        <v>1.841975577400177</v>
       </c>
       <c r="H16">
-        <v>2.174238946454409</v>
+        <v>1.35115102126133</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.566806725406494</v>
+        <v>0.4998330130654551</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.829137678015627</v>
+        <v>1.203800710128064</v>
       </c>
       <c r="C17">
-        <v>0.933985770104556</v>
+        <v>0.2547865445093578</v>
       </c>
       <c r="D17">
-        <v>0.3118917331983226</v>
+        <v>0.1046389572626367</v>
       </c>
       <c r="E17">
-        <v>0.2981257269391193</v>
+        <v>0.1217802326643067</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.110262253741638</v>
+        <v>1.799373190159372</v>
       </c>
       <c r="H17">
-        <v>2.087178017075047</v>
+        <v>1.3331513205313</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.49267537176091</v>
+        <v>0.4824906694683762</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.723101118897603</v>
+        <v>1.178018390624572</v>
       </c>
       <c r="C18">
-        <v>0.9088135290700734</v>
+        <v>0.2484691550442903</v>
       </c>
       <c r="D18">
-        <v>0.3031483880122181</v>
+        <v>0.1025496973529556</v>
       </c>
       <c r="E18">
-        <v>0.2898401528030163</v>
+        <v>0.1199635365263845</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.00214658979894</v>
+        <v>1.774968873667575</v>
       </c>
       <c r="H18">
-        <v>2.037847180788958</v>
+        <v>1.322867948436283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.450488438402701</v>
+        <v>0.4725393796628197</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.687355352990664</v>
+        <v>1.169297579023464</v>
       </c>
       <c r="C19">
-        <v>0.900328012852583</v>
+        <v>0.2463306215979628</v>
       </c>
       <c r="D19">
-        <v>0.3002031228401165</v>
+        <v>0.1018431711086691</v>
       </c>
       <c r="E19">
-        <v>0.2870540958472105</v>
+        <v>0.1193497034802675</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.965788740348103</v>
+        <v>1.766722935856706</v>
       </c>
       <c r="H19">
-        <v>2.021266438855889</v>
+        <v>1.319398064851583</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.436278106638511</v>
+        <v>0.4691740591061375</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.848839020365631</v>
+        <v>1.208576554313311</v>
       </c>
       <c r="C20">
-        <v>0.9386628735384761</v>
+        <v>0.255955957484673</v>
       </c>
       <c r="D20">
-        <v>0.3135172826791575</v>
+        <v>0.1050260431154726</v>
       </c>
       <c r="E20">
-        <v>0.2996686069271561</v>
+        <v>0.1221170677235861</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.130392924080496</v>
+        <v>1.803897961920171</v>
       </c>
       <c r="H20">
-        <v>2.096367319294075</v>
+        <v>1.335060203687732</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.500519066460129</v>
+        <v>0.4843343446397057</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.403601503295022</v>
+        <v>1.341157102739487</v>
       </c>
       <c r="C21">
-        <v>1.070404461340559</v>
+        <v>0.288327652819703</v>
       </c>
       <c r="D21">
-        <v>0.3594205393045513</v>
+        <v>0.1157809847618267</v>
       </c>
       <c r="E21">
-        <v>0.343547653642382</v>
+        <v>0.1315048981395606</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.702601484969989</v>
+        <v>1.929999287744295</v>
       </c>
       <c r="H21">
-        <v>2.358064978015307</v>
+        <v>1.38851869512041</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.722079474696656</v>
+        <v>0.5355548405871389</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.776980325060549</v>
+        <v>1.428268865918994</v>
       </c>
       <c r="C22">
-        <v>1.159144258729384</v>
+        <v>0.3095108797539865</v>
       </c>
       <c r="D22">
-        <v>0.3904488612964769</v>
+        <v>0.1228565765635778</v>
       </c>
       <c r="E22">
-        <v>0.3735407436378537</v>
+        <v>0.1377092454313598</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.093312818108075</v>
+        <v>2.013330122578623</v>
       </c>
       <c r="H22">
-        <v>2.5372445663603</v>
+        <v>1.424090255292299</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.87194079997164</v>
+        <v>0.5692476732887286</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.576591891225576</v>
+        <v>1.38173274428226</v>
       </c>
       <c r="C23">
-        <v>1.111509353851943</v>
+        <v>0.2982023972226386</v>
       </c>
       <c r="D23">
-        <v>0.3737835026084753</v>
+        <v>0.119075856613108</v>
       </c>
       <c r="E23">
-        <v>0.3573984218065291</v>
+        <v>0.1343914465026614</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.883079198139001</v>
+        <v>1.968769545688701</v>
       </c>
       <c r="H23">
-        <v>2.440786518096729</v>
+        <v>1.405046422656085</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.791438370575364</v>
+        <v>0.5512449299002071</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.839929220572117</v>
+        <v>1.206417274070532</v>
       </c>
       <c r="C24">
-        <v>0.9365476775716104</v>
+        <v>0.2554272668146496</v>
       </c>
       <c r="D24">
-        <v>0.3127820981544573</v>
+        <v>0.1048510288248252</v>
       </c>
       <c r="E24">
-        <v>0.2989707168021738</v>
+        <v>0.1219647639770542</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.121287303311703</v>
+        <v>1.801852037713871</v>
       </c>
       <c r="H24">
-        <v>2.092210603781922</v>
+        <v>1.334196995628787</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.496971596762819</v>
+        <v>0.483500759825489</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081229192556975</v>
+        <v>1.019238509941204</v>
       </c>
       <c r="C25">
-        <v>0.756429293511701</v>
+        <v>0.2093835272936246</v>
       </c>
       <c r="D25">
-        <v>0.2504388656361414</v>
+        <v>0.08969956281470104</v>
       </c>
       <c r="E25">
-        <v>0.2403711408742026</v>
+        <v>0.1088440304754528</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.356404419574375</v>
+        <v>1.625588099416092</v>
       </c>
       <c r="H25">
-        <v>1.744077369153928</v>
+        <v>1.260426311733397</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.196199041886416</v>
+        <v>0.4113242722898178</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8829803438055706</v>
+        <v>2.543841718428666</v>
       </c>
       <c r="C2">
-        <v>0.1755377646059628</v>
+        <v>0.6287315745141768</v>
       </c>
       <c r="D2">
-        <v>0.07869776133452433</v>
+        <v>0.206627505020009</v>
       </c>
       <c r="E2">
-        <v>0.09941137218497431</v>
+        <v>0.1999171691510497</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.498862315415892</v>
+        <v>2.828328089008664</v>
       </c>
       <c r="H2">
-        <v>1.208302126339021</v>
+        <v>1.505202678136669</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3588998942875961</v>
+        <v>0.9847977535710655</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7915654878975147</v>
+        <v>2.189000186341104</v>
       </c>
       <c r="C3">
-        <v>0.1526226228488952</v>
+        <v>0.5442679158814201</v>
       </c>
       <c r="D3">
-        <v>0.07133251497639037</v>
+        <v>0.1778828043156153</v>
       </c>
       <c r="E3">
-        <v>0.09315340541534312</v>
+        <v>0.1737341564770603</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.414789356164249</v>
+        <v>2.486762503982874</v>
       </c>
       <c r="H3">
-        <v>1.174302172605053</v>
+        <v>1.351566492478639</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3237949660798591</v>
+        <v>0.8460131598000018</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7358813128300028</v>
+        <v>1.974650245518234</v>
       </c>
       <c r="C4">
-        <v>0.1385599860710158</v>
+        <v>0.4931570583335372</v>
       </c>
       <c r="D4">
-        <v>0.06685335012912219</v>
+        <v>0.1605998992543221</v>
       </c>
       <c r="E4">
-        <v>0.08937498524816334</v>
+        <v>0.1581415893476361</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.36403068976486</v>
+        <v>2.283523920331902</v>
       </c>
       <c r="H4">
-        <v>1.154066190260011</v>
+        <v>1.260564396162067</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3024417656031773</v>
+        <v>0.7625122525895449</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7133000115429127</v>
+        <v>1.888043796036612</v>
       </c>
       <c r="C5">
-        <v>0.1328307656777952</v>
+        <v>0.4724815550571293</v>
       </c>
       <c r="D5">
-        <v>0.06503869437567289</v>
+        <v>0.153635826101933</v>
       </c>
       <c r="E5">
-        <v>0.08785101908407</v>
+        <v>0.1518927788095752</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.343558948799028</v>
+        <v>2.202125725714239</v>
       </c>
       <c r="H5">
-        <v>1.145979045323827</v>
+        <v>1.224220017278782</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2937898753701162</v>
+        <v>0.7288501568770371</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7095570339513699</v>
+        <v>1.873703808795398</v>
       </c>
       <c r="C6">
-        <v>0.1318795063042728</v>
+        <v>0.4690566357998307</v>
       </c>
       <c r="D6">
-        <v>0.06473800890587711</v>
+        <v>0.152483844708712</v>
       </c>
       <c r="E6">
-        <v>0.08759890882613774</v>
+        <v>0.1508610792480383</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.34017236820489</v>
+        <v>2.188689888079182</v>
       </c>
       <c r="H6">
-        <v>1.14464574337967</v>
+        <v>1.218227051771549</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2923562114433693</v>
+        <v>0.7232808534187001</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7355763281404393</v>
+        <v>1.973479411794273</v>
       </c>
       <c r="C7">
-        <v>0.1384827146149235</v>
+        <v>0.4928776483901345</v>
       </c>
       <c r="D7">
-        <v>0.06682883422968189</v>
+        <v>0.1605056767155304</v>
       </c>
       <c r="E7">
-        <v>0.08935436907341199</v>
+        <v>0.1580569098787237</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.363753744311339</v>
+        <v>2.282420652972945</v>
       </c>
       <c r="H7">
-        <v>1.153956482048699</v>
+        <v>1.260071370694533</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3023248831059178</v>
+        <v>0.7620568771068079</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.851367259767585</v>
+        <v>2.420669937172818</v>
       </c>
       <c r="C8">
-        <v>0.1676348284937887</v>
+        <v>0.5994298675516916</v>
       </c>
       <c r="D8">
-        <v>0.07614914768433323</v>
+        <v>0.1966318480065041</v>
       </c>
       <c r="E8">
-        <v>0.09724014635884259</v>
+        <v>0.1907784197817932</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.469692485230212</v>
+        <v>2.70907916820434</v>
       </c>
       <c r="H8">
-        <v>1.19644499576799</v>
+        <v>1.451475494658325</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3467533501333051</v>
+        <v>0.9365475213044263</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.082041344766537</v>
+        <v>3.332921000384658</v>
       </c>
       <c r="C9">
-        <v>0.2248830162622824</v>
+        <v>0.8161899115681592</v>
       </c>
       <c r="D9">
-        <v>0.09477868155960323</v>
+        <v>0.2710614005639229</v>
       </c>
       <c r="E9">
-        <v>0.113227310595498</v>
+        <v>0.2596257956853947</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.68447511285234</v>
+        <v>3.60777700163149</v>
       </c>
       <c r="H9">
-        <v>1.284929683595749</v>
+        <v>1.858244797897299</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4355219891104696</v>
+        <v>1.295686890171595</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.25384579344518</v>
+        <v>4.036530862887162</v>
       </c>
       <c r="C10">
-        <v>0.2670286224909262</v>
+        <v>0.9832246630479915</v>
       </c>
       <c r="D10">
-        <v>0.1086963214556107</v>
+        <v>0.3290199147422186</v>
       </c>
       <c r="E10">
-        <v>0.12531461444744</v>
+        <v>0.3144209218617533</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.846850386239112</v>
+        <v>4.322840503118499</v>
       </c>
       <c r="H10">
-        <v>1.35321438721985</v>
+        <v>2.18427879987604</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5018151136100073</v>
+        <v>1.575330041704333</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.3325392911687</v>
+        <v>4.36706169136562</v>
       </c>
       <c r="C11">
-        <v>0.2862285267657967</v>
+        <v>1.061723895225668</v>
       </c>
       <c r="D11">
-        <v>0.1150813877566179</v>
+        <v>0.3563896200603551</v>
       </c>
       <c r="E11">
-        <v>0.1308926057209661</v>
+        <v>0.3406321287224969</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.921775173409515</v>
+        <v>4.664601970394983</v>
       </c>
       <c r="H11">
-        <v>1.385017961515189</v>
+        <v>2.340658355995743</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5322232771562909</v>
+        <v>1.707445477592699</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.362418047789959</v>
+        <v>4.494048548623425</v>
       </c>
       <c r="C12">
-        <v>0.2935036089716334</v>
+        <v>1.091894098105342</v>
       </c>
       <c r="D12">
-        <v>0.1175072522520395</v>
+        <v>0.3669273350210744</v>
       </c>
       <c r="E12">
-        <v>0.1330166537376343</v>
+        <v>0.3507796293772358</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.950304408370357</v>
+        <v>4.796845048384341</v>
       </c>
       <c r="H12">
-        <v>1.397169780535251</v>
+        <v>2.401251294564304</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5437753764940823</v>
+        <v>1.758327509734301</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.355979570248735</v>
+        <v>4.466612963121406</v>
       </c>
       <c r="C13">
-        <v>0.2919365815139088</v>
+        <v>1.085375171561168</v>
       </c>
       <c r="D13">
-        <v>0.1169844403290341</v>
+        <v>0.364649623104853</v>
       </c>
       <c r="E13">
-        <v>0.132558672059254</v>
+        <v>0.3485836525558028</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.944153079391072</v>
+        <v>4.768230369796356</v>
       </c>
       <c r="H13">
-        <v>1.394547811245957</v>
+        <v>2.388136519761588</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5412857537998548</v>
+        <v>1.74732859961442</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.334995836151961</v>
+        <v>4.377470442105221</v>
       </c>
       <c r="C14">
-        <v>0.286826959043168</v>
+        <v>1.064196586464732</v>
       </c>
       <c r="D14">
-        <v>0.1152808038384023</v>
+        <v>0.3572529054819427</v>
       </c>
       <c r="E14">
-        <v>0.1310671141626329</v>
+        <v>0.3414622865265144</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.924119121428646</v>
+        <v>4.675422171556761</v>
       </c>
       <c r="H14">
-        <v>1.386015512968811</v>
+        <v>2.345614442298142</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5331729237431801</v>
+        <v>1.711613545296601</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.322153065296391</v>
+        <v>4.323115729008123</v>
       </c>
       <c r="C15">
-        <v>0.2836977687889544</v>
+        <v>1.051284649067213</v>
       </c>
       <c r="D15">
-        <v>0.1142383233173234</v>
+        <v>0.3527457277053259</v>
       </c>
       <c r="E15">
-        <v>0.13015503736532</v>
+        <v>0.3371303542806814</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.91186830368008</v>
+        <v>4.618957282315307</v>
       </c>
       <c r="H15">
-        <v>1.380803423299369</v>
+        <v>2.31975458153471</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5282084565285743</v>
+        <v>1.689852914431057</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.248713979267052</v>
+        <v>4.015166319497837</v>
       </c>
       <c r="C16">
-        <v>0.2657744640592341</v>
+        <v>0.9781518943071887</v>
       </c>
       <c r="D16">
-        <v>0.1082801460398031</v>
+        <v>0.3272538187463994</v>
       </c>
       <c r="E16">
-        <v>0.1249517086413903</v>
+        <v>0.3127368402823123</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.841975577400177</v>
+        <v>4.300874416092853</v>
       </c>
       <c r="H16">
-        <v>1.35115102126133</v>
+        <v>2.174238946454466</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4998330130654551</v>
+        <v>1.566806725406494</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.203800710128064</v>
+        <v>3.829137678015911</v>
       </c>
       <c r="C17">
-        <v>0.2547865445093578</v>
+        <v>0.9339857701048686</v>
       </c>
       <c r="D17">
-        <v>0.1046389572626367</v>
+        <v>0.3118917331983653</v>
       </c>
       <c r="E17">
-        <v>0.1217802326643067</v>
+        <v>0.2981257269391051</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.799373190159372</v>
+        <v>4.110262253741581</v>
       </c>
       <c r="H17">
-        <v>1.3331513205313</v>
+        <v>2.087178017075018</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4824906694683762</v>
+        <v>1.492675371760882</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.178018390624572</v>
+        <v>3.723101118897489</v>
       </c>
       <c r="C18">
-        <v>0.2484691550442903</v>
+        <v>0.9088135290701587</v>
       </c>
       <c r="D18">
-        <v>0.1025496973529556</v>
+        <v>0.303148388012346</v>
       </c>
       <c r="E18">
-        <v>0.1199635365263845</v>
+        <v>0.2898401528029098</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.774968873667575</v>
+        <v>4.002146589798912</v>
       </c>
       <c r="H18">
-        <v>1.322867948436283</v>
+        <v>2.03784718078893</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4725393796628197</v>
+        <v>1.450488438402715</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169297579023464</v>
+        <v>3.687355352990664</v>
       </c>
       <c r="C19">
-        <v>0.2463306215979628</v>
+        <v>0.9003280128522704</v>
       </c>
       <c r="D19">
-        <v>0.1018431711086691</v>
+        <v>0.3002031228401023</v>
       </c>
       <c r="E19">
-        <v>0.1193497034802675</v>
+        <v>0.2870540958471608</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.766722935856706</v>
+        <v>3.965788740348188</v>
       </c>
       <c r="H19">
-        <v>1.319398064851583</v>
+        <v>2.021266438855889</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4691740591061375</v>
+        <v>1.436278106638483</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.208576554313311</v>
+        <v>3.848839020365688</v>
       </c>
       <c r="C20">
-        <v>0.255955957484673</v>
+        <v>0.9386628735385045</v>
       </c>
       <c r="D20">
-        <v>0.1050260431154726</v>
+        <v>0.3135172826791717</v>
       </c>
       <c r="E20">
-        <v>0.1221170677235861</v>
+        <v>0.2996686069271135</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.803897961920171</v>
+        <v>4.130392924080411</v>
       </c>
       <c r="H20">
-        <v>1.335060203687732</v>
+        <v>2.096367319293989</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4843343446397057</v>
+        <v>1.500519066460114</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.341157102739487</v>
+        <v>4.403601503294965</v>
       </c>
       <c r="C21">
-        <v>0.288327652819703</v>
+        <v>1.070404461340246</v>
       </c>
       <c r="D21">
-        <v>0.1157809847618267</v>
+        <v>0.3594205393047645</v>
       </c>
       <c r="E21">
-        <v>0.1315048981395606</v>
+        <v>0.343547653642382</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.929999287744295</v>
+        <v>4.702601484969932</v>
       </c>
       <c r="H21">
-        <v>1.38851869512041</v>
+        <v>2.358064978015364</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5355548405871389</v>
+        <v>1.722079474696628</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.428268865918994</v>
+        <v>4.77698032506089</v>
       </c>
       <c r="C22">
-        <v>0.3095108797539865</v>
+        <v>1.15914425873018</v>
       </c>
       <c r="D22">
-        <v>0.1228565765635778</v>
+        <v>0.3904488612966475</v>
       </c>
       <c r="E22">
-        <v>0.1377092454313598</v>
+        <v>0.3735407436377827</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.013330122578623</v>
+        <v>5.093312818107961</v>
       </c>
       <c r="H22">
-        <v>1.424090255292299</v>
+        <v>2.537244566360073</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5692476732887286</v>
+        <v>1.871940799971625</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.38173274428226</v>
+        <v>4.576591891225519</v>
       </c>
       <c r="C23">
-        <v>0.2982023972226386</v>
+        <v>1.111509353852199</v>
       </c>
       <c r="D23">
-        <v>0.119075856613108</v>
+        <v>0.3737835026086884</v>
       </c>
       <c r="E23">
-        <v>0.1343914465026614</v>
+        <v>0.3573984218065505</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.968769545688701</v>
+        <v>4.883079198138944</v>
       </c>
       <c r="H23">
-        <v>1.405046422656085</v>
+        <v>2.440786518096559</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5512449299002071</v>
+        <v>1.791438370575392</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.206417274070532</v>
+        <v>3.839929220572117</v>
       </c>
       <c r="C24">
-        <v>0.2554272668146496</v>
+        <v>0.9365476775718378</v>
       </c>
       <c r="D24">
-        <v>0.1048510288248252</v>
+        <v>0.312782098154301</v>
       </c>
       <c r="E24">
-        <v>0.1219647639770542</v>
+        <v>0.2989707168021383</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.801852037713871</v>
+        <v>4.121287303311789</v>
       </c>
       <c r="H24">
-        <v>1.334196995628787</v>
+        <v>2.092210603781922</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.483500759825489</v>
+        <v>1.496971596762819</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019238509941204</v>
+        <v>3.081229192556805</v>
       </c>
       <c r="C25">
-        <v>0.2093835272936246</v>
+        <v>0.7564292935114736</v>
       </c>
       <c r="D25">
-        <v>0.08969956281470104</v>
+        <v>0.2504388656362693</v>
       </c>
       <c r="E25">
-        <v>0.1088440304754528</v>
+        <v>0.2403711408741671</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.625588099416092</v>
+        <v>3.356404419574545</v>
       </c>
       <c r="H25">
-        <v>1.260426311733397</v>
+        <v>1.744077369153928</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4113242722898178</v>
+        <v>1.196199041886409</v>
       </c>
       <c r="N25">
         <v>0</v>
